--- a/Team-Data/2007-08/1-3-2007-08.xlsx
+++ b/Team-Data/2007-08/1-3-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
         <v>14</v>
@@ -756,7 +823,7 @@
         <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI2" t="n">
         <v>28</v>
@@ -765,7 +832,7 @@
         <v>27</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -792,7 +859,7 @@
         <v>24</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU2" t="n">
         <v>23</v>
@@ -807,7 +874,7 @@
         <v>6</v>
       </c>
       <c r="AY2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ2" t="n">
         <v>18</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>13.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -974,7 +1041,7 @@
         <v>7</v>
       </c>
       <c r="AT3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -989,7 +1056,7 @@
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>14</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -1108,31 +1175,31 @@
         <v>-5.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
         <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
         <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM4" t="n">
         <v>15</v>
@@ -1141,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP4" t="n">
         <v>13</v>
@@ -1156,7 +1223,7 @@
         <v>29</v>
       </c>
       <c r="AT4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU4" t="n">
         <v>21</v>
@@ -1180,7 +1247,7 @@
         <v>14</v>
       </c>
       <c r="BB4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -1212,67 +1279,67 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
         <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="n">
-        <v>0.387</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
-        <v>48.6</v>
+        <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>35.8</v>
+        <v>35.5</v>
       </c>
       <c r="J5" t="n">
-        <v>85.40000000000001</v>
+        <v>84.7</v>
       </c>
       <c r="K5" t="n">
         <v>0.419</v>
       </c>
       <c r="L5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.327</v>
+        <v>0.335</v>
       </c>
       <c r="O5" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P5" t="n">
         <v>22.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="R5" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="S5" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T5" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U5" t="n">
         <v>21.7</v>
       </c>
       <c r="V5" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
         <v>5.9</v>
@@ -1284,31 +1351,31 @@
         <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.8</v>
+        <v>93.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
         <v>22</v>
       </c>
-      <c r="AG5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>20</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
@@ -1320,7 +1387,7 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO5" t="n">
         <v>23</v>
@@ -1329,7 +1396,7 @@
         <v>25</v>
       </c>
       <c r="AQ5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1347,25 +1414,25 @@
         <v>11</v>
       </c>
       <c r="AW5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY5" t="n">
         <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA5" t="n">
         <v>19</v>
       </c>
       <c r="BB5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
         <v>14</v>
@@ -1484,7 +1551,7 @@
         <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI6" t="n">
         <v>23</v>
@@ -1496,7 +1563,7 @@
         <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM6" t="n">
         <v>13</v>
@@ -1535,7 +1602,7 @@
         <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ6" t="n">
         <v>24</v>
@@ -1547,7 +1614,7 @@
         <v>19</v>
       </c>
       <c r="BC6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>5</v>
@@ -1666,13 +1733,13 @@
         <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK7" t="n">
         <v>6</v>
@@ -1699,13 +1766,13 @@
         <v>21</v>
       </c>
       <c r="AS7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT7" t="n">
         <v>15</v>
       </c>
       <c r="AU7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
@@ -1714,7 +1781,7 @@
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY7" t="n">
         <v>6</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -1758,88 +1825,88 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" t="n">
         <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>0.613</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="J8" t="n">
-        <v>84.59999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.454</v>
+        <v>0.456</v>
       </c>
       <c r="L8" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M8" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O8" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="P8" t="n">
-        <v>30.4</v>
+        <v>30.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R8" t="n">
         <v>11.5</v>
       </c>
       <c r="S8" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="T8" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="U8" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="V8" t="n">
         <v>16.5</v>
       </c>
       <c r="W8" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.1</v>
+        <v>106.9</v>
       </c>
       <c r="AC8" t="n">
         <v>3.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
@@ -1848,22 +1915,22 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK8" t="n">
         <v>12</v>
       </c>
       <c r="AL8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN8" t="n">
         <v>24</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR8" t="n">
         <v>14</v>
@@ -1890,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1899,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ8" t="n">
         <v>19</v>
@@ -1908,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="BB8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>10.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2036,7 +2103,7 @@
         <v>8</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
         <v>4</v>
@@ -2078,16 +2145,16 @@
         <v>19</v>
       </c>
       <c r="AX9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ9" t="n">
         <v>9</v>
       </c>
       <c r="BA9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB9" t="n">
         <v>11</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2270,7 @@
         <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF10" t="n">
         <v>11</v>
@@ -2212,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
@@ -2397,7 +2464,7 @@
         <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ11" t="n">
         <v>11</v>
@@ -2412,7 +2479,7 @@
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO11" t="n">
         <v>27</v>
@@ -2433,7 +2500,7 @@
         <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV11" t="n">
         <v>12</v>
@@ -2451,7 +2518,7 @@
         <v>10</v>
       </c>
       <c r="BA11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB11" t="n">
         <v>21</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2643,7 @@
         <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>6</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
         <v>5</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
         <v>19</v>
@@ -2609,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="AS12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT12" t="n">
         <v>4</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2770,7 +2837,7 @@
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM13" t="n">
         <v>25</v>
@@ -2788,7 +2855,7 @@
         <v>7</v>
       </c>
       <c r="AR13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS13" t="n">
         <v>8</v>
@@ -2806,7 +2873,7 @@
         <v>22</v>
       </c>
       <c r="AX13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>4.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2943,7 +3010,7 @@
         <v>24</v>
       </c>
       <c r="AI14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ14" t="n">
         <v>10</v>
@@ -2988,7 +3055,7 @@
         <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY14" t="n">
         <v>11</v>
@@ -3000,7 +3067,7 @@
         <v>5</v>
       </c>
       <c r="BB14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3125,7 +3192,7 @@
         <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
         <v>17</v>
@@ -3149,7 +3216,7 @@
         <v>18</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
         <v>27</v>
@@ -3158,7 +3225,7 @@
         <v>12</v>
       </c>
       <c r="AT15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU15" t="n">
         <v>20</v>
@@ -3173,7 +3240,7 @@
         <v>12</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
         <v>5</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
         <v>28</v>
@@ -3304,7 +3371,7 @@
         <v>29</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI16" t="n">
         <v>24</v>
@@ -3313,7 +3380,7 @@
         <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL16" t="n">
         <v>27</v>
@@ -3337,7 +3404,7 @@
         <v>28</v>
       </c>
       <c r="AS16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3352,13 +3419,13 @@
         <v>8</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA16" t="n">
         <v>9</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -3474,19 +3541,19 @@
         <v>-5.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI17" t="n">
         <v>16</v>
@@ -3507,7 +3574,7 @@
         <v>20</v>
       </c>
       <c r="AO17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP17" t="n">
         <v>23</v>
@@ -3531,7 +3598,7 @@
         <v>22</v>
       </c>
       <c r="AW17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX17" t="n">
         <v>18</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
         <v>14</v>
@@ -3850,7 +3917,7 @@
         <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>4</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
         <v>5</v>
@@ -4032,7 +4099,7 @@
         <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI20" t="n">
         <v>14</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
         <v>28</v>
@@ -4214,7 +4281,7 @@
         <v>28</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
@@ -4265,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ21" t="n">
         <v>20</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
         <v>8</v>
@@ -4396,13 +4463,13 @@
         <v>7</v>
       </c>
       <c r="AH22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK22" t="n">
         <v>8</v>
@@ -4435,7 +4502,7 @@
         <v>9</v>
       </c>
       <c r="AU22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV22" t="n">
         <v>16</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>20</v>
@@ -4581,7 +4648,7 @@
         <v>17</v>
       </c>
       <c r="AI23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
         <v>22</v>
@@ -4596,7 +4663,7 @@
         <v>28</v>
       </c>
       <c r="AN23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO23" t="n">
         <v>22</v>
@@ -4614,7 +4681,7 @@
         <v>23</v>
       </c>
       <c r="AT23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU23" t="n">
         <v>24</v>
@@ -4638,7 +4705,7 @@
         <v>20</v>
       </c>
       <c r="BB23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
         <v>17</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -4670,61 +4737,61 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" t="n">
         <v>9</v>
       </c>
       <c r="G24" t="n">
-        <v>0.719</v>
+        <v>0.71</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="J24" t="n">
-        <v>85.3</v>
+        <v>85.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.491</v>
+        <v>0.492</v>
       </c>
       <c r="L24" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M24" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="N24" t="n">
         <v>0.37</v>
       </c>
       <c r="O24" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="P24" t="n">
-        <v>22.3</v>
+        <v>21.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.769</v>
+        <v>0.773</v>
       </c>
       <c r="R24" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="T24" t="n">
-        <v>41.4</v>
+        <v>41.1</v>
       </c>
       <c r="U24" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="V24" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W24" t="n">
         <v>7.5</v>
@@ -4733,31 +4800,31 @@
         <v>6.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z24" t="n">
         <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.2</v>
+        <v>109.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
       </c>
       <c r="AF24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH24" t="n">
         <v>24</v>
@@ -4766,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK24" t="n">
         <v>1</v>
@@ -4781,22 +4848,22 @@
         <v>7</v>
       </c>
       <c r="AO24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP24" t="n">
         <v>26</v>
       </c>
       <c r="AQ24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4805,7 +4872,7 @@
         <v>6</v>
       </c>
       <c r="AW24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -4852,61 +4919,61 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" t="n">
         <v>13</v>
       </c>
       <c r="G25" t="n">
-        <v>0.606</v>
+        <v>0.594</v>
       </c>
       <c r="H25" t="n">
-        <v>48.5</v>
+        <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J25" t="n">
-        <v>77.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L25" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="M25" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="N25" t="n">
-        <v>0.383</v>
+        <v>0.378</v>
       </c>
       <c r="O25" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P25" t="n">
         <v>23.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.757</v>
+        <v>0.753</v>
       </c>
       <c r="R25" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="S25" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="T25" t="n">
-        <v>39.9</v>
+        <v>39.6</v>
       </c>
       <c r="U25" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V25" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W25" t="n">
         <v>5.5</v>
@@ -4915,7 +4982,7 @@
         <v>4.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Z25" t="n">
         <v>19.9</v>
@@ -4924,13 +4991,13 @@
         <v>21.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>96.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>8</v>
@@ -4942,19 +5009,19 @@
         <v>10</v>
       </c>
       <c r="AH25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK25" t="n">
         <v>9</v>
       </c>
-      <c r="AI25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>10</v>
-      </c>
       <c r="AL25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AM25" t="n">
         <v>16</v>
@@ -4966,19 +5033,19 @@
         <v>21</v>
       </c>
       <c r="AP25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS25" t="n">
         <v>21</v>
       </c>
-      <c r="AQ25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>20</v>
-      </c>
       <c r="AT25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU25" t="n">
         <v>13</v>
@@ -4993,13 +5060,13 @@
         <v>19</v>
       </c>
       <c r="AY25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ25" t="n">
         <v>6</v>
       </c>
       <c r="BA25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-3.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
         <v>21</v>
@@ -5124,7 +5191,7 @@
         <v>21</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
         <v>25</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -5216,85 +5283,85 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" t="n">
         <v>21</v>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>0.724</v>
       </c>
       <c r="H27" t="n">
         <v>48</v>
       </c>
       <c r="I27" t="n">
-        <v>36.7</v>
+        <v>37.1</v>
       </c>
       <c r="J27" t="n">
-        <v>79.3</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.463</v>
+        <v>0.466</v>
       </c>
       <c r="L27" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.389</v>
+        <v>0.39</v>
       </c>
       <c r="O27" t="n">
         <v>16.6</v>
       </c>
       <c r="P27" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.757</v>
+        <v>0.762</v>
       </c>
       <c r="R27" t="n">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="S27" t="n">
         <v>31.8</v>
       </c>
       <c r="T27" t="n">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="U27" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V27" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W27" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X27" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA27" t="n">
         <v>20</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AE27" t="n">
         <v>5</v>
@@ -5303,16 +5370,16 @@
         <v>3</v>
       </c>
       <c r="AG27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH27" t="n">
         <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AJ27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK27" t="n">
         <v>7</v>
@@ -5333,16 +5400,16 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU27" t="n">
         <v>10</v>
@@ -5357,7 +5424,7 @@
         <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -5398,124 +5465,124 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28" t="n">
-        <v>0.281</v>
+        <v>0.29</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J28" t="n">
-        <v>85.3</v>
+        <v>84.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
       <c r="L28" t="n">
         <v>4.8</v>
       </c>
       <c r="M28" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.356</v>
+        <v>0.36</v>
       </c>
       <c r="O28" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P28" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="Q28" t="n">
         <v>0.769</v>
       </c>
       <c r="R28" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="S28" t="n">
         <v>33.5</v>
       </c>
       <c r="T28" t="n">
-        <v>45.3</v>
+        <v>45.1</v>
       </c>
       <c r="U28" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V28" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="W28" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X28" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="AA28" t="n">
         <v>20.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>-6.3</v>
+        <v>-6.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
         <v>26</v>
       </c>
       <c r="AF28" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI28" t="n">
         <v>7</v>
       </c>
       <c r="AJ28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM28" t="n">
         <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR28" t="n">
         <v>13</v>
@@ -5527,25 +5594,25 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AV28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX28" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ28" t="n">
         <v>15</v>
       </c>
       <c r="BA28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB28" t="n">
         <v>14</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>1.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
@@ -5670,10 +5737,10 @@
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ29" t="n">
         <v>8</v>
@@ -5721,7 +5788,7 @@
         <v>24</v>
       </c>
       <c r="AY29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ29" t="n">
         <v>7</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF30" t="n">
         <v>15</v>
@@ -5870,7 +5937,7 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>1.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6034,10 +6101,10 @@
         <v>15</v>
       </c>
       <c r="AH31" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
@@ -6046,7 +6113,7 @@
         <v>14</v>
       </c>
       <c r="AL31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM31" t="n">
         <v>11</v>
@@ -6082,7 +6149,7 @@
         <v>17</v>
       </c>
       <c r="AX31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-3-2007-08</t>
+          <t>2008-01-03</t>
         </is>
       </c>
     </row>
